--- a/data/trans_dic/P21D_1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_1_R-Dificultad-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01525895351349744</v>
+        <v>0.01432643589669002</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.008765938734020567</v>
+        <v>0.008316920533124788</v>
       </c>
     </row>
     <row r="7">
@@ -707,7 +707,7 @@
         <v>0.001408523404604009</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0006701762271531578</v>
+        <v>0.0006701762271531577</v>
       </c>
     </row>
     <row r="14">
@@ -734,10 +734,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.008410505904167025</v>
+        <v>0.006984220219711792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.003293440356419746</v>
+        <v>0.003680376981550941</v>
       </c>
     </row>
     <row r="16">
@@ -785,10 +785,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.002884087387893889</v>
+        <v>0.003091096217523284</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.001376371920262236</v>
+        <v>0.001373334700598828</v>
       </c>
     </row>
     <row r="19">
@@ -946,10 +946,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4116</v>
+        <v>3864</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4096</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="8">
@@ -1134,10 +1134,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4194</v>
+        <v>3482</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3451</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="20">
@@ -1202,10 +1202,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>4853</v>
+        <v>5201</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4451</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="24">
